--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\HR Chatbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48A867D-4CC5-4B3E-B95E-494F6ED02BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B718A-44EF-420F-960C-C947166EC30A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -31,32 +31,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
-  <si>
-    <t>Fan</t>
-  </si>
-  <si>
-    <t>We have multiple kinds of fans. Please select your choice. 1. Table Fan 2. Ceiling fan 3. Wallmounted fan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Suggestions</t>
   </si>
   <si>
     <t>Table fan</t>
   </si>
   <si>
-    <t>Fizzair, SDX Black-Gold, SDX 120, Wind Mill, High Flo EVA</t>
-  </si>
-  <si>
     <t>Ceiling fan</t>
   </si>
   <si>
-    <t>We have multiple ranges in the ceiling fans. Please select your range 1. Super Premium 2. Premium 3. Metallic/Decorative 4. Economy</t>
-  </si>
-  <si>
     <t>Lamps</t>
   </si>
   <si>
-    <t>We have multiple kinds of Lightings. Please select your choice. 1. LED Lamps 2. CFL 3. FTL 4. GLS 5. Halogen</t>
-  </si>
-  <si>
     <t>Air Cooler</t>
   </si>
   <si>
@@ -72,9 +63,6 @@
     <t>Personal Cooler</t>
   </si>
   <si>
-    <t>1. Genie 2. Marvel 3. Marvel Dlx</t>
-  </si>
-  <si>
     <t>Order Fans</t>
   </si>
   <si>
@@ -198,26 +186,183 @@
     <t>I don't know how to respond to that</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answer</t>
+    <t>We have multiple kinds of fans. Please select your choice. 1.Ceiling fans 2. Table Fans 3. Pedastal Fans 4. Wallmounted fans 5. Domestic Exhaust Fans 6. Special Fans 7. Kitchen Fans</t>
+  </si>
+  <si>
+    <t>We have multiple ranges in the ceiling fans. Please select your range 1. Super Premium 2. Premium 3. Metallic/Decorative 4. Standard Plain 5. Economy 6. BEE Star rated 7. Rural 8. ISI</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. KANNON PAINTED 2. TRINTON PRIME 3. AVANCER E-SENSE 4. TRINTON ELECTROPLATED 5. TRINTON PAINTED 6. STUBBY 7. RIVERA 600 MM 8. AGGNUZ PRIMUS 9. TWIRL 10. RADIANCE 11. AVANCER PRIME-ANTI DUST 12. AVANCER 13. AMOUR 14. IMPERIAL 15. LERONE 16. SENORITA 17. SENORITA 1200 18. DEVINE 19. AURA PRIME - ANTI DUST</t>
+  </si>
+  <si>
+    <t>Super Premium</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. LUSTER EROS 2. TITATNIS 3. NEBULA 4. JUPITER 5. URANUS 6. KANNON ELECTROPLATED</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. AIR 360 DECO 2. CALIBER (HI SPEED) 3. AURA 4. RIVIERA STYLE 5. FLYLEAF 6. DECAIR 7. CALIBER (HI SPEED) METALL 8. AURA METALLIC 9. HIGH SPEED DECORA METALLIC 10. HIGH SPEED DECORA 11. DIAMOND 12. FLAVIA 13. MOUNT BREESE DECO 14. HIGH SPEED METALLIC</t>
+  </si>
+  <si>
+    <t>Metallic / Decorative</t>
+  </si>
+  <si>
+    <t>Standar Plain</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. AIR 360 DECO 2. JURA 3. HIGH BREEZE 4. HIGH SPEED 5. ULTRAA (HI SPEED) 6. MOUNT BREEZE 7. SMART BREEZE (HI SPEED) 8. RIVIERA (HI SPEED) 9. ZAPAR (HI SPEED)</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. BRIZ AIR DECO 2. COOL BREEZE DECO 3. BRIZ AIR 4. COOL BREEZE 5. SEA BREEZE 6. SEA WIND 7. WINZER 1200 8. WINZER 1400 9. HILL BRIZ 10. NEO BREEZE</t>
+  </si>
+  <si>
+    <t>BEE star rated</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. AURA PLUS - 5 STAR 2. HS DECORA PLUS - 5 STAR 3. HB PLUS - 5 STAR 4. COOL BREEZE DECO PLUS - 3 5. COOL BREEZE PLUS - 3 STAR 6. HS PLUS - 5 STAR 7. EMPOWER 50 - STAR 8. ENTRUST 50-5 STAR 9. ASSET 50 - 5 STAR</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. PAVAN DECO 2. PAVAN</t>
+  </si>
+  <si>
+    <t>ISI</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. WWHE 2. WWPS</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. FIZZAIR (HIGH SPEED) 2. SDX BLACK-GOLD 3. SDX-120 4. WIND MILL 5. HIGH FLO EVA</t>
+  </si>
+  <si>
+    <t>Pedastal fans</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. FIZZAIR (HIGH SPEED) 2. SDX BLACK-GOLD 3. WIND MILL 4. MINI SAPPY 5. HIGH FLO EVA - WITH REM 6. HIGH FLO ESTER - WITH REM 7. HIGH FLOW LG 8. HIGH FLO WAVE 9. HIGH FLO LG 18 10. WIND FLO (HI-SPEED) 11. STORM 12. WINDSTAR FARRATA</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. FIZZAIR (HIGH SPEED) 2. SDX BLACK-GOLD 3. SDX MIII 4. HIGH FLO WAVE 6. HIGH FLO LG 18 7. WIND FLO(HI-SPEED)</t>
+  </si>
+  <si>
+    <t>Wall mounted fans</t>
+  </si>
+  <si>
+    <t>Domestic exhaust fans</t>
+  </si>
+  <si>
+    <t>Great! Please select the model: 1. Platic Exhaust 2. Metal exhaust</t>
+  </si>
+  <si>
+    <t>Plastic Exhaust fans</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. MOUNT AIR 2. VENTILLUS 3. BRISK AIR HS 4. AXIAL AIR 5. BRISK AIR</t>
+  </si>
+  <si>
+    <t>Metall exhaust</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. TRANS AIR/ TRAMS AOR REVER 2. DRIFT AIR 3. FLUX AIR</t>
+  </si>
+  <si>
+    <t>AIR CIRCULATOR</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. AIR CIRCULATOR WALL 2. AIR CIRUCLATOR PEDASTAL</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Air buddy</t>
+  </si>
+  <si>
+    <t>CFL</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. CFL DF SPIRAL 2. CFL DF 2U COLOUR 3. CFL DF 2U 4. CFL DF T2 SPIRAL 5. CFL DF 3U 6. CFL SPIRAL G24 7. CFL DF 4U 8. CFL PIN 2U 9. CFL PIN 36W U 10. CFL-UMBRELLA-FULL SPI</t>
+  </si>
+  <si>
+    <t>FTL</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. SUPER SAVER 2. SUPER BRITE 3. ENERGYLUX</t>
+  </si>
+  <si>
+    <t>GLS</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. STANDARD GLS CLEAR LAMP 2. GLS CLEAR MUSHROOM LAMP 3. GLS MILKY LAMPS 4. SPECIAL NIGHT DECO LAMPS</t>
+  </si>
+  <si>
+    <t>Halogen</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. HAL 1000 2. HAL-500</t>
+  </si>
+  <si>
+    <t>HID</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. HPSV LAMPS 2. HPMV 3. METAL HALIDE LAMPS</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. GENIE (ACGC-PAC07) 2. MARVEL (ACGC-PAC01) 3. MARVEL DLX (ACGC-PAC201DLX)</t>
+  </si>
+  <si>
+    <t>Tower cooler</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. MYSTIQUE (ACGC-TAC201) 2. MYSTIQUE DLX (ACGC-TAC341) 3. TURBO 22 (ACGC-MYSTIQTRBO22) 4. TURBO 34 (ACGC-MYSTIQTRBO34) 5. TURBO 50 (ACGC-MYSTIQTRBO50)</t>
+  </si>
+  <si>
+    <t>Desert cooler</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. OPTIMUS 65 (ACGC-OPTIMUS65) 2. OPTIMUS 100 (ACGC-OPTIMUS100)</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. TRICOOL (ACGC-TRICOOL) 2. OZONE CHILL (ACGC-DAC541) 3. OZONE CLASSIC (ACGC-OZONECLASIC54)</t>
+  </si>
+  <si>
+    <t>Window cooler</t>
+  </si>
+  <si>
+    <t>We have multiple variety. Please select your choice. 1. Solar Submersible Pump 2. Solar Monobloc Pump</t>
+  </si>
+  <si>
+    <t>Pumps</t>
+  </si>
+  <si>
+    <t>Solar Submersible pump</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. SOLAR BLDC SUBMERSIBLE PU 2. SOLAR AC SUBMERSIBLE PUMP</t>
+  </si>
+  <si>
+    <t>Solar Monobloc Pump</t>
+  </si>
+  <si>
+    <t>SOLAR AC CENTRIFUGAL MONO</t>
+  </si>
+  <si>
+    <t>We have multiple kinds of Lightings. Please select your choice. 1. LED Lamps 2. CFL 3. FTL 4. GLS 5. Halogen 6. HID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -245,14 +390,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,408 +706,616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DCF6BF-0F4F-4881-9E36-3D3059FC833D}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>56</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\Chatbot_CGL9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B718A-44EF-420F-960C-C947166EC30A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F149DF0-260E-48B5-9F3B-AC8D18C829F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -33,12 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Suggestions</t>
-  </si>
-  <si>
     <t>Table fan</t>
   </si>
   <si>
@@ -355,6 +349,12 @@
   </si>
   <si>
     <t>We have multiple kinds of Lightings. Please select your choice. 1. LED Lamps 2. CFL 3. FTL 4. GLS 5. Halogen 6. HID</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
   </si>
 </sst>
 </file>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DCF6BF-0F4F-4881-9E36-3D3059FC833D}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,602 +720,602 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\Chatbot_CGL9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot-CGL-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F149DF0-260E-48B5-9F3B-AC8D18C829F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02BE72F-41A6-495E-B692-90871D54E74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Super Premium</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. LUSTER EROS 2. TITATNIS 3. NEBULA 4. JUPITER 5. URANUS 6. KANNON ELECTROPLATED</t>
-  </si>
-  <si>
     <t>Great! You are one step away. There are many models. Please select the model from the following: 1. AIR 360 DECO 2. CALIBER (HI SPEED) 3. AURA 4. RIVIERA STYLE 5. FLYLEAF 6. DECAIR 7. CALIBER (HI SPEED) METALL 8. AURA METALLIC 9. HIGH SPEED DECORA METALLIC 10. HIGH SPEED DECORA 11. DIAMOND 12. FLAVIA 13. MOUNT BREESE DECO 14. HIGH SPEED METALLIC</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/luster-eros/'&gt;LUSTER EROS&lt;/a&gt; 2. TITATNIS 3. NEBULA 4. JUPITER 5. URANUS 6. KANNON ELECTROPLATED</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,10 +720,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,50 +848,50 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
         <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,63 +899,63 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
         <v>72</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
         <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
         <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
         <v>78</v>
-      </c>
-      <c r="B29" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,42 +1064,42 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
         <v>82</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
         <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
         <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
         <v>88</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
         <v>90</v>
-      </c>
-      <c r="B48" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,55 +1211,55 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" t="s">
         <v>93</v>
-      </c>
-      <c r="B63" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" t="s">
         <v>95</v>
-      </c>
-      <c r="B64" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" t="s">
         <v>101</v>
-      </c>
-      <c r="B67" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" t="s">
         <v>103</v>
-      </c>
-      <c r="B68" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">

--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot-CGL-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02BE72F-41A6-495E-B692-90871D54E74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD91576-5E24-49F8-ADEB-60B019981458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -354,7 +354,7 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/luster-eros/'&gt;LUSTER EROS&lt;/a&gt; 2. TITATNIS 3. NEBULA 4. JUPITER 5. URANUS 6. KANNON ELECTROPLATED</t>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/luster-eros/' target='_blank'&gt;LUSTER EROS !!!&lt;/a&gt; 2. TITATNIS 3. NEBULA 4. JUPITER 5. URANUS 6. KANNON ELECTROPLATED</t>
   </si>
 </sst>
 </file>

--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot-CGL-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD91576-5E24-49F8-ADEB-60B019981458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D1CD02-3172-4D59-B993-7572C611E90C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="114">
   <si>
     <t>Table fan</t>
   </si>
@@ -355,6 +355,24 @@
   </si>
   <si>
     <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/luster-eros/' target='_blank'&gt;LUSTER EROS !!!&lt;/a&gt; 2. TITATNIS 3. NEBULA 4. JUPITER 5. URANUS 6. KANNON ELECTROPLATED</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Great! What product are you looking for today?</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Great! Please enter your Crompton UserID</t>
+  </si>
+  <si>
+    <t>Retailer</t>
+  </si>
+  <si>
+    <t>Employee</t>
   </si>
 </sst>
 </file>
@@ -706,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DCF6BF-0F4F-4881-9E36-3D3059FC833D}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,6 +1336,38 @@
         <v>48</v>
       </c>
     </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot-CGL-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D1CD02-3172-4D59-B993-7572C611E90C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D63CE2-4C73-41DD-B562-77495D08ABB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
   <si>
     <t>Table fan</t>
   </si>
@@ -372,7 +372,10 @@
     <t>Retailer</t>
   </si>
   <si>
-    <t>Employee</t>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Crompton Executive</t>
   </si>
 </sst>
 </file>
@@ -724,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DCF6BF-0F4F-4881-9E36-3D3059FC833D}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,6 +1371,14 @@
         <v>111</v>
       </c>
     </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot-CGL-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D63CE2-4C73-41DD-B562-77495D08ABB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C44269B-9ACB-4FFE-9809-EBCC2970B618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -189,15 +189,9 @@
     <t>Premium</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. KANNON PAINTED 2. TRINTON PRIME 3. AVANCER E-SENSE 4. TRINTON ELECTROPLATED 5. TRINTON PAINTED 6. STUBBY 7. RIVERA 600 MM 8. AGGNUZ PRIMUS 9. TWIRL 10. RADIANCE 11. AVANCER PRIME-ANTI DUST 12. AVANCER 13. AMOUR 14. IMPERIAL 15. LERONE 16. SENORITA 17. SENORITA 1200 18. DEVINE 19. AURA PRIME - ANTI DUST</t>
-  </si>
-  <si>
     <t>Super Premium</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. AIR 360 DECO 2. CALIBER (HI SPEED) 3. AURA 4. RIVIERA STYLE 5. FLYLEAF 6. DECAIR 7. CALIBER (HI SPEED) METALL 8. AURA METALLIC 9. HIGH SPEED DECORA METALLIC 10. HIGH SPEED DECORA 11. DIAMOND 12. FLAVIA 13. MOUNT BREESE DECO 14. HIGH SPEED METALLIC</t>
-  </si>
-  <si>
     <t>Metallic / Decorative</t>
   </si>
   <si>
@@ -376,6 +370,12 @@
   </si>
   <si>
     <t>Crompton Executive</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/kannon-painted/' target='_blank'&gt;/KANNON PAINTED&lt;/a&gt; 2. TRINTON PRIME 3. AVANCER E-SENSE 4. TRINTON ELECTROPLATED 5. TRINTON PAINTED 6. STUBBY 7. RIVERA 600 MM 8. AGGNUZ PRIMUS 9. TWIRL 10. RADIANCE 11. AVANCER PRIME-ANTI DUST 12. AVANCER 13. AMOUR 14. IMPERIAL 15. LERONE 16. SENORITA 17. SENORITA 1200 18. DEVINE 19. AURA PRIME - ANTI DUST</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/air-360-deco/" target='_blank'&gt;/AIR 360 DECO&lt;/a&gt; 2. CALIBER (HI SPEED) 3. AURA 4. RIVIERA STYLE 5. FLYLEAF 6. DECAIR 7. CALIBER (HI SPEED) METALL 8. AURA METALLIC 9. HIGH SPEED DECORA METALLIC 10. HIGH SPEED DECORA 11. DIAMOND 12. FLAVIA 13. MOUNT BREESE DECO 14. HIGH SPEED METALLIC</t>
   </si>
 </sst>
 </file>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DCF6BF-0F4F-4881-9E36-3D3059FC833D}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,10 +741,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,10 +853,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,55 +864,55 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,63 +920,63 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +1000,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,42 +1085,42 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,55 +1232,55 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,42 +1341,42 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot-CGL-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot\chatbot-CGL-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C44269B-9ACB-4FFE-9809-EBCC2970B618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D492BEC4-957A-4E60-B958-471ABF2C9190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -180,45 +180,6 @@
     <t>I don't know how to respond to that</t>
   </si>
   <si>
-    <t>We have multiple kinds of fans. Please select your choice. 1.Ceiling fans 2. Table Fans 3. Pedastal Fans 4. Wallmounted fans 5. Domestic Exhaust Fans 6. Special Fans 7. Kitchen Fans</t>
-  </si>
-  <si>
-    <t>We have multiple ranges in the ceiling fans. Please select your range 1. Super Premium 2. Premium 3. Metallic/Decorative 4. Standard Plain 5. Economy 6. BEE Star rated 7. Rural 8. ISI</t>
-  </si>
-  <si>
-    <t>Premium</t>
-  </si>
-  <si>
-    <t>Super Premium</t>
-  </si>
-  <si>
-    <t>Metallic / Decorative</t>
-  </si>
-  <si>
-    <t>Standar Plain</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. AIR 360 DECO 2. JURA 3. HIGH BREEZE 4. HIGH SPEED 5. ULTRAA (HI SPEED) 6. MOUNT BREEZE 7. SMART BREEZE (HI SPEED) 8. RIVIERA (HI SPEED) 9. ZAPAR (HI SPEED)</t>
-  </si>
-  <si>
-    <t>Economy</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. BRIZ AIR DECO 2. COOL BREEZE DECO 3. BRIZ AIR 4. COOL BREEZE 5. SEA BREEZE 6. SEA WIND 7. WINZER 1200 8. WINZER 1400 9. HILL BRIZ 10. NEO BREEZE</t>
-  </si>
-  <si>
-    <t>BEE star rated</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. AURA PLUS - 5 STAR 2. HS DECORA PLUS - 5 STAR 3. HB PLUS - 5 STAR 4. COOL BREEZE DECO PLUS - 3 5. COOL BREEZE PLUS - 3 STAR 6. HS PLUS - 5 STAR 7. EMPOWER 50 - STAR 8. ENTRUST 50-5 STAR 9. ASSET 50 - 5 STAR</t>
-  </si>
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. PAVAN DECO 2. PAVAN</t>
-  </si>
-  <si>
     <t>ISI</t>
   </si>
   <si>
@@ -348,9 +309,6 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/luster-eros/' target='_blank'&gt;LUSTER EROS !!!&lt;/a&gt; 2. TITATNIS 3. NEBULA 4. JUPITER 5. URANUS 6. KANNON ELECTROPLATED</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -372,10 +330,52 @@
     <t>Crompton Executive</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/kannon-painted/' target='_blank'&gt;/KANNON PAINTED&lt;/a&gt; 2. TRINTON PRIME 3. AVANCER E-SENSE 4. TRINTON ELECTROPLATED 5. TRINTON PAINTED 6. STUBBY 7. RIVERA 600 MM 8. AGGNUZ PRIMUS 9. TWIRL 10. RADIANCE 11. AVANCER PRIME-ANTI DUST 12. AVANCER 13. AMOUR 14. IMPERIAL 15. LERONE 16. SENORITA 17. SENORITA 1200 18. DEVINE 19. AURA PRIME - ANTI DUST</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/air-360-deco/" target='_blank'&gt;/AIR 360 DECO&lt;/a&gt; 2. CALIBER (HI SPEED) 3. AURA 4. RIVIERA STYLE 5. FLYLEAF 6. DECAIR 7. CALIBER (HI SPEED) METALL 8. AURA METALLIC 9. HIGH SPEED DECORA METALLIC 10. HIGH SPEED DECORA 11. DIAMOND 12. FLAVIA 13. MOUNT BREESE DECO 14. HIGH SPEED METALLIC</t>
+    <t>We have multiple kinds of fans. Please select your choice. 1.Ceiling fans 2. Table Fans 3. Pedastal Fans 4. Wallmounted fans 5. Domestic Exhaust Fans 6. Kitchen Fans</t>
+  </si>
+  <si>
+    <t>We have multiple ranges in the ceiling fans. Please select your range 1. Underlight 2. Electroplated Finish 3. Designer 4. Duratech 5. Antidust 6. Air 360 7. Energy Efficient &amp; Low Voltage 8. Basic</t>
+  </si>
+  <si>
+    <t>Underlight</t>
+  </si>
+  <si>
+    <t>Electroplated Finish</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura/' target='_blank'&gt;/Aura&lt;/a&gt; 3. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 4. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avamour/' target='_blank'&gt;/Avamour&lt;/a&gt; 5. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-e-sense-2/' target='_blank'&gt;/Avancer E-Sense&lt;/a&gt; 6. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/caliber-hi-speed-metallic/' target='_blank'&gt;/Caliber Hi Speed Metallic&lt;/a&gt; 7. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/decair/' target='_blank'&gt;/Dec'Air&lt;/a&gt; 8. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dorado/' target='_blank'&gt;/Dorado&lt;/a&gt; 9. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/flyleaf-2/' target='_blank'&gt;/Flyleaf&lt;/a&gt; 10. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-decora/' target='_blank'&gt;/High Speed Decora&lt;/a&gt; 11. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decora-scion/' target='_blank'&gt;/HS Decora Scion&lt;/a&gt; 12. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura/' target='_blank'&gt;/Jura&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura/' target='_blank'&gt;/Aura&lt;/a&gt; 3. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 4. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avamour/' target='_blank'&gt;/Avamour&lt;/a&gt; 5. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-e-sense-2/' target='_blank'&gt;/Avancer E-Sense&lt;/a&gt; 6. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/caliber-hi-speed-metallic/' target='_blank'&gt;/Caliber Hi Speed Metallic&lt;/a&gt; 7. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/decair/' target='_blank'&gt;/Dec'Air&lt;/a&gt; 8. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dorado/' target='_blank'&gt;/Dorado&lt;/a&gt; 9. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/flyleaf-2/' target='_blank'&gt;/Flyleaf&lt;/a&gt; 10. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-decora/' target='_blank'&gt;/High Speed Decora&lt;/a&gt; 11. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decora-scion/' target='_blank'&gt;/HS Decora Scion&lt;/a&gt; 12. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura/' target='_blank'&gt;/Jura&lt;/a&gt;  13. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/senoprime-2/' target='_blank'&gt;/Senoprime&lt;/a&gt; 14. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/splitz/' target='_blank'&gt;/Splitz&lt;/a&gt; 15. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-3d/' target='_blank'&gt;/Aura Designer 3D&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/triton-electroplated/' target='_blank'&gt;/Trinton Electroplate&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/trigger-neo/' target='_blank'&gt;/Trigger Neo&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Duratech</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 3. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-3d/' target='_blank'&gt;/Aura Designer 3D&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Antidust</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 3. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dignita-antidust/' target='_blank'&gt;/Dignita Antidust&lt;/a&gt; 4. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura-antidust/' target='_blank'&gt;/Jura Antidust&lt;/a&gt; 5. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-prime-antidust/' target='_blank'&gt;/Avancer Prime Antidust&lt;/a&gt; 6. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime-antidust/' target='_blank'&gt;/Aura Prime Antidust&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Air 360</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360/' target='_blank'&gt;/Air 360&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360-deco/' target='_blank'&gt;/Air 360 Deco&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Energy Efficient &amp; Low Voltage</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-plus-2/' target='_blank'&gt;Aura Plus&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/asset-50/' target='_blank'&gt;Asset 50&lt;/a&gt; 3. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/empower-50/' target='_blank'&gt;Empower 50&lt;/a&gt; 4. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/entrust-50/' target='_blank'&gt;Entrust 50&lt;/a&gt; 5. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-plus/' target='_blank'&gt;High Speed Plus&lt;/a&gt; 6. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decor-plus-2/' target='_blank'&gt;High Decor Plus&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,10 +741,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,71 +848,71 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,63 +920,63 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +1000,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,42 +1085,42 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,55 +1232,55 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,42 +1341,42 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot\chatbot-CGL-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D492BEC4-957A-4E60-B958-471ABF2C9190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6E035B-7E49-413D-9C9A-A028BCE17271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -345,37 +345,37 @@
     <t>Designer</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura/' target='_blank'&gt;/Aura&lt;/a&gt; 3. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 4. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avamour/' target='_blank'&gt;/Avamour&lt;/a&gt; 5. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-e-sense-2/' target='_blank'&gt;/Avancer E-Sense&lt;/a&gt; 6. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/caliber-hi-speed-metallic/' target='_blank'&gt;/Caliber Hi Speed Metallic&lt;/a&gt; 7. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/decair/' target='_blank'&gt;/Dec'Air&lt;/a&gt; 8. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dorado/' target='_blank'&gt;/Dorado&lt;/a&gt; 9. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/flyleaf-2/' target='_blank'&gt;/Flyleaf&lt;/a&gt; 10. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-decora/' target='_blank'&gt;/High Speed Decora&lt;/a&gt; 11. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decora-scion/' target='_blank'&gt;/HS Decora Scion&lt;/a&gt; 12. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura/' target='_blank'&gt;/Jura&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura/' target='_blank'&gt;/Aura&lt;/a&gt; 3. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 4. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avamour/' target='_blank'&gt;/Avamour&lt;/a&gt; 5. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-e-sense-2/' target='_blank'&gt;/Avancer E-Sense&lt;/a&gt; 6. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/caliber-hi-speed-metallic/' target='_blank'&gt;/Caliber Hi Speed Metallic&lt;/a&gt; 7. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/decair/' target='_blank'&gt;/Dec'Air&lt;/a&gt; 8. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dorado/' target='_blank'&gt;/Dorado&lt;/a&gt; 9. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/flyleaf-2/' target='_blank'&gt;/Flyleaf&lt;/a&gt; 10. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-decora/' target='_blank'&gt;/High Speed Decora&lt;/a&gt; 11. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decora-scion/' target='_blank'&gt;/HS Decora Scion&lt;/a&gt; 12. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura/' target='_blank'&gt;/Jura&lt;/a&gt;  13. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/senoprime-2/' target='_blank'&gt;/Senoprime&lt;/a&gt; 14. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/splitz/' target='_blank'&gt;/Splitz&lt;/a&gt; 15. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-3d/' target='_blank'&gt;/Aura Designer 3D&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/triton-electroplated/' target='_blank'&gt;/Trinton Electroplate&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/trigger-neo/' target='_blank'&gt;/Trigger Neo&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Duratech</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 3. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-3d/' target='_blank'&gt;/Aura Designer 3D&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Antidust</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 3. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dignita-antidust/' target='_blank'&gt;/Dignita Antidust&lt;/a&gt; 4. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura-antidust/' target='_blank'&gt;/Jura Antidust&lt;/a&gt; 5. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-prime-antidust/' target='_blank'&gt;/Avancer Prime Antidust&lt;/a&gt; 6. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime-antidust/' target='_blank'&gt;/Aura Prime Antidust&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Air 360</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360/' target='_blank'&gt;/Air 360&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360-deco/' target='_blank'&gt;/Air 360 Deco&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Energy Efficient &amp; Low Voltage</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-plus-2/' target='_blank'&gt;Aura Plus&lt;/a&gt; 2. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/asset-50/' target='_blank'&gt;Asset 50&lt;/a&gt; 3. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/empower-50/' target='_blank'&gt;Empower 50&lt;/a&gt; 4. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/entrust-50/' target='_blank'&gt;Entrust 50&lt;/a&gt; 5. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-plus/' target='_blank'&gt;High Speed Plus&lt;/a&gt; 6. &lt;a 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decor-plus-2/' target='_blank'&gt;High Decor Plus&lt;/a&gt;</t>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura/' target='_blank'&gt;/Aura&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 4. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avamour/' target='_blank'&gt;/Avamour&lt;/a&gt; 5. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-e-sense-2/' target='_blank'&gt;/Avancer E-Sense&lt;/a&gt; 6. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/caliber-hi-speed-metallic/' target='_blank'&gt;/Caliber Hi Speed Metallic&lt;/a&gt; 7. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/decair/' target='_blank'&gt;/Dec'Air&lt;/a&gt; 8. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dorado/' target='_blank'&gt;/Dorado&lt;/a&gt; 9. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/flyleaf-2/' target='_blank'&gt;/Flyleaf&lt;/a&gt; 10. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-decora/' target='_blank'&gt;/High Speed Decora&lt;/a&gt; 11. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decora-scion/' target='_blank'&gt;/HS Decora Scion&lt;/a&gt; 12. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura/' target='_blank'&gt;/Jura&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/triton-electroplated/' target='_blank'&gt;/Trinton Electroplate&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/trigger-neo/' target='_blank'&gt;/Trigger Neo&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura/' target='_blank'&gt;/Aura&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 4. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avamour/' target='_blank'&gt;/Avamour&lt;/a&gt; 5. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-e-sense-2/' target='_blank'&gt;/Avancer E-Sense&lt;/a&gt; 6. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/caliber-hi-speed-metallic/' target='_blank'&gt;/Caliber Hi Speed Metallic&lt;/a&gt; 7. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/decair/' target='_blank'&gt;/Dec'Air&lt;/a&gt; 8. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dorado/' target='_blank'&gt;/Dorado&lt;/a&gt; 9. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/flyleaf-2/' target='_blank'&gt;/Flyleaf&lt;/a&gt; 10. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-decora/' target='_blank'&gt;/High Speed Decora&lt;/a&gt; 11. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decora-scion/' target='_blank'&gt;/HS Decora Scion&lt;/a&gt; 12. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura/' target='_blank'&gt;/Jura&lt;/a&gt;  13. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/senoprime-2/' target='_blank'&gt;/Senoprime&lt;/a&gt; 14. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/splitz/' target='_blank'&gt;/Splitz&lt;/a&gt; 15. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-3d/' target='_blank'&gt;/Aura Designer 3D&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-3d/' target='_blank'&gt;/Aura Designer 3D&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dignita-antidust/' target='_blank'&gt;/Dignita Antidust&lt;/a&gt; 4. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura-antidust/' target='_blank'&gt;/Jura Antidust&lt;/a&gt; 5. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-prime-antidust/' target='_blank'&gt;/Avancer Prime Antidust&lt;/a&gt; 6. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime-antidust/' target='_blank'&gt;/Aura Prime Antidust&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360/' target='_blank'&gt;/Air 360&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360-deco/' target='_blank'&gt;/Air 360 Deco&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-plus-2/' target='_blank'&gt;Aura Plus&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/asset-50/' target='_blank'&gt;Asset 50&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/empower-50/' target='_blank'&gt;Empower 50&lt;/a&gt; 4. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/entrust-50/' target='_blank'&gt;Entrust 50&lt;/a&gt; 5. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-plus/' target='_blank'&gt;High Speed Plus&lt;/a&gt; 6. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decor-plus-2/' target='_blank'&gt;High Decor Plus&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,7 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,36 +872,36 @@
         <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>114</v>

--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot\chatbot-CGL-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6E035B-7E49-413D-9C9A-A028BCE17271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52FC083-C20B-4E5F-8DAB-CDF7593D1E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t>I don't know how to respond to that</t>
   </si>
   <si>
-    <t>ISI</t>
-  </si>
-  <si>
     <t>Great! You are one step away. There are many models. Please select the model from the following: 1. WWHE 2. WWPS</t>
   </si>
   <si>
@@ -357,25 +354,28 @@
     <t>Energy Efficient &amp; Low Voltage</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura/' target='_blank'&gt;/Aura&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 4. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avamour/' target='_blank'&gt;/Avamour&lt;/a&gt; 5. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-e-sense-2/' target='_blank'&gt;/Avancer E-Sense&lt;/a&gt; 6. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/caliber-hi-speed-metallic/' target='_blank'&gt;/Caliber Hi Speed Metallic&lt;/a&gt; 7. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/decair/' target='_blank'&gt;/Dec'Air&lt;/a&gt; 8. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dorado/' target='_blank'&gt;/Dorado&lt;/a&gt; 9. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/flyleaf-2/' target='_blank'&gt;/Flyleaf&lt;/a&gt; 10. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-decora/' target='_blank'&gt;/High Speed Decora&lt;/a&gt; 11. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decora-scion/' target='_blank'&gt;/HS Decora Scion&lt;/a&gt; 12. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura/' target='_blank'&gt;/Jura&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/triton-electroplated/' target='_blank'&gt;/Trinton Electroplate&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/trigger-neo/' target='_blank'&gt;/Trigger Neo&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura/' target='_blank'&gt;/Aura&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 4. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avamour/' target='_blank'&gt;/Avamour&lt;/a&gt; 5. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-e-sense-2/' target='_blank'&gt;/Avancer E-Sense&lt;/a&gt; 6. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/caliber-hi-speed-metallic/' target='_blank'&gt;/Caliber Hi Speed Metallic&lt;/a&gt; 7. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/decair/' target='_blank'&gt;/Dec'Air&lt;/a&gt; 8. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dorado/' target='_blank'&gt;/Dorado&lt;/a&gt; 9. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/flyleaf-2/' target='_blank'&gt;/Flyleaf&lt;/a&gt; 10. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-decora/' target='_blank'&gt;/High Speed Decora&lt;/a&gt; 11. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decora-scion/' target='_blank'&gt;/HS Decora Scion&lt;/a&gt; 12. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura/' target='_blank'&gt;/Jura&lt;/a&gt;  13. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/senoprime-2/' target='_blank'&gt;/Senoprime&lt;/a&gt; 14. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/splitz/' target='_blank'&gt;/Splitz&lt;/a&gt; 15. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-3d/' target='_blank'&gt;/Aura Designer 3D&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-3d/' target='_blank'&gt;/Aura Designer 3D&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;/Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;/Aura Prime&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dignita-antidust/' target='_blank'&gt;/Dignita Antidust&lt;/a&gt; 4. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura-antidust/' target='_blank'&gt;/Jura Antidust&lt;/a&gt; 5. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-prime-antidust/' target='_blank'&gt;/Avancer Prime Antidust&lt;/a&gt; 6. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime-antidust/' target='_blank'&gt;/Aura Prime Antidust&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360/' target='_blank'&gt;/Air 360&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360-deco/' target='_blank'&gt;/Air 360 Deco&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-plus-2/' target='_blank'&gt;Aura Plus&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/asset-50/' target='_blank'&gt;Asset 50&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/empower-50/' target='_blank'&gt;Empower 50&lt;/a&gt; 4. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/entrust-50/' target='_blank'&gt;Entrust 50&lt;/a&gt; 5. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-plus/' target='_blank'&gt;High Speed Plus&lt;/a&gt; 6. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decor-plus-2/' target='_blank'&gt;High Decor Plus&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura/' target='_blank'&gt;Aura&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;Aura Prime&lt;/a&gt; 4. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avamour/' target='_blank'&gt;Avamour&lt;/a&gt; 5. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-e-sense-2/' target='_blank'&gt;Avancer E-Sense&lt;/a&gt; 6. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/caliber-hi-speed-metallic/' target='_blank'&gt;Caliber Hi Speed Metallic&lt;/a&gt; 7. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/decair/' target='_blank'&gt;Dec'Air&lt;/a&gt; 8. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dorado/' target='_blank'&gt;Dorado&lt;/a&gt; 9. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/flyleaf-2/' target='_blank'&gt;Flyleaf&lt;/a&gt; 10. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-decora/' target='_blank'&gt;High Speed Decora&lt;/a&gt; 11. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decora-scion/' target='_blank'&gt;HS Decora Scion&lt;/a&gt; 12. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura/' target='_blank'&gt;Jura&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/triton-electroplated/' target='_blank'&gt;Trinton Electroplate&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/trigger-neo/' target='_blank'&gt;Trigger Neo&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura/' target='_blank'&gt;Aura&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;Aura Prime&lt;/a&gt; 4. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avamour/' target='_blank'&gt;Avamour&lt;/a&gt; 5. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-e-sense-2/' target='_blank'&gt;Avancer E-Sense&lt;/a&gt; 6. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/caliber-hi-speed-metallic/' target='_blank'&gt;Caliber Hi Speed Metallic&lt;/a&gt; 7. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/decair/' target='_blank'&gt;Dec'Air&lt;/a&gt; 8. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dorado/' target='_blank'&gt;Dorado&lt;/a&gt; 9. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/flyleaf-2/' target='_blank'&gt;Flyleaf&lt;/a&gt; 10. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/high-speed-decora/' target='_blank'&gt;High Speed Decora&lt;/a&gt; 11. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/hs-decora-scion/' target='_blank'&gt;HS Decora Scion&lt;/a&gt; 12. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura/' target='_blank'&gt;Jura&lt;/a&gt;  13. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/senoprime-2/' target='_blank'&gt;Senoprime&lt;/a&gt; 14. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/splitz/' target='_blank'&gt;Splitz&lt;/a&gt; 15. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-3d/' target='_blank'&gt;Aura Designer 3D&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;Aura Prime&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-3d/' target='_blank'&gt;Aura Designer 3D&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-designer-2d/' target='_blank'&gt;Aura Designer 2D&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime/' target='_blank'&gt;Aura Prime&lt;/a&gt; 3. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/dignita-antidust/' target='_blank'&gt;Dignita Antidust&lt;/a&gt; 4. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/jura-antidust/' target='_blank'&gt;Jura Antidust&lt;/a&gt; 5. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/avancer-prime-antidust/' target='_blank'&gt;Avancer Prime Antidust&lt;/a&gt; 6. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/aura-prime-antidust/' target='_blank'&gt;Aura Prime Antidust&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360/' target='_blank'&gt;Air 360&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360-deco/' target='_blank'&gt;Air 360 Deco&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -741,10 +741,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,71 +848,71 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
         <v>107</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,63 +920,63 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
         <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
         <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +1000,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,42 +1085,42 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
         <v>66</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
         <v>68</v>
-      </c>
-      <c r="B45" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
         <v>70</v>
-      </c>
-      <c r="B46" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
         <v>72</v>
-      </c>
-      <c r="B47" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
         <v>74</v>
-      </c>
-      <c r="B48" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,55 +1232,55 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
         <v>77</v>
-      </c>
-      <c r="B63" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" t="s">
         <v>79</v>
-      </c>
-      <c r="B64" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
         <v>85</v>
-      </c>
-      <c r="B67" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
         <v>87</v>
-      </c>
-      <c r="B68" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,42 +1341,42 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
         <v>92</v>
-      </c>
-      <c r="B76" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" t="s">
         <v>94</v>
-      </c>
-      <c r="B77" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot\chatbot-CGL-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52FC083-C20B-4E5F-8DAB-CDF7593D1E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF523AF-938E-4B1F-B19A-07E64AFC36F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>Table fan</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Air Cooler</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>Great! Please select the Wattage 1. 3W 2. 5W 3. 7W</t>
-  </si>
-  <si>
     <t>We have multiple variety. Please select your choice. 1. Personal Coolers 2. Tower Coolers 3. Desert Coolers</t>
   </si>
   <si>
@@ -180,126 +174,30 @@
     <t>I don't know how to respond to that</t>
   </si>
   <si>
-    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. WWHE 2. WWPS</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. FIZZAIR (HIGH SPEED) 2. SDX BLACK-GOLD 3. SDX-120 4. WIND MILL 5. HIGH FLO EVA</t>
-  </si>
-  <si>
     <t>Pedastal fans</t>
   </si>
   <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. FIZZAIR (HIGH SPEED) 2. SDX BLACK-GOLD 3. WIND MILL 4. MINI SAPPY 5. HIGH FLO EVA - WITH REM 6. HIGH FLO ESTER - WITH REM 7. HIGH FLOW LG 8. HIGH FLO WAVE 9. HIGH FLO LG 18 10. WIND FLO (HI-SPEED) 11. STORM 12. WINDSTAR FARRATA</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. FIZZAIR (HIGH SPEED) 2. SDX BLACK-GOLD 3. SDX MIII 4. HIGH FLO WAVE 6. HIGH FLO LG 18 7. WIND FLO(HI-SPEED)</t>
-  </si>
-  <si>
     <t>Wall mounted fans</t>
   </si>
   <si>
     <t>Domestic exhaust fans</t>
   </si>
   <si>
-    <t>Great! Please select the model: 1. Platic Exhaust 2. Metal exhaust</t>
-  </si>
-  <si>
-    <t>Plastic Exhaust fans</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. MOUNT AIR 2. VENTILLUS 3. BRISK AIR HS 4. AXIAL AIR 5. BRISK AIR</t>
-  </si>
-  <si>
-    <t>Metall exhaust</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. TRANS AIR/ TRAMS AOR REVER 2. DRIFT AIR 3. FLUX AIR</t>
-  </si>
-  <si>
-    <t>AIR CIRCULATOR</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. AIR CIRCULATOR WALL 2. AIR CIRUCLATOR PEDASTAL</t>
-  </si>
-  <si>
     <t>Kitchen</t>
   </si>
   <si>
-    <t>Air buddy</t>
-  </si>
-  <si>
-    <t>CFL</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. CFL DF SPIRAL 2. CFL DF 2U COLOUR 3. CFL DF 2U 4. CFL DF T2 SPIRAL 5. CFL DF 3U 6. CFL SPIRAL G24 7. CFL DF 4U 8. CFL PIN 2U 9. CFL PIN 36W U 10. CFL-UMBRELLA-FULL SPI</t>
-  </si>
-  <si>
-    <t>FTL</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. SUPER SAVER 2. SUPER BRITE 3. ENERGYLUX</t>
-  </si>
-  <si>
-    <t>GLS</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. STANDARD GLS CLEAR LAMP 2. GLS CLEAR MUSHROOM LAMP 3. GLS MILKY LAMPS 4. SPECIAL NIGHT DECO LAMPS</t>
-  </si>
-  <si>
-    <t>Halogen</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. HAL 1000 2. HAL-500</t>
-  </si>
-  <si>
-    <t>HID</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. HPSV LAMPS 2. HPMV 3. METAL HALIDE LAMPS</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. GENIE (ACGC-PAC07) 2. MARVEL (ACGC-PAC01) 3. MARVEL DLX (ACGC-PAC201DLX)</t>
-  </si>
-  <si>
     <t>Tower cooler</t>
   </si>
   <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. MYSTIQUE (ACGC-TAC201) 2. MYSTIQUE DLX (ACGC-TAC341) 3. TURBO 22 (ACGC-MYSTIQTRBO22) 4. TURBO 34 (ACGC-MYSTIQTRBO34) 5. TURBO 50 (ACGC-MYSTIQTRBO50)</t>
-  </si>
-  <si>
     <t>Desert cooler</t>
   </si>
   <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. OPTIMUS 65 (ACGC-OPTIMUS65) 2. OPTIMUS 100 (ACGC-OPTIMUS100)</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. TRICOOL (ACGC-TRICOOL) 2. OZONE CHILL (ACGC-DAC541) 3. OZONE CLASSIC (ACGC-OZONECLASIC54)</t>
-  </si>
-  <si>
     <t>Window cooler</t>
   </si>
   <si>
-    <t>We have multiple variety. Please select your choice. 1. Solar Submersible Pump 2. Solar Monobloc Pump</t>
-  </si>
-  <si>
     <t>Pumps</t>
   </si>
   <si>
-    <t>Solar Submersible pump</t>
-  </si>
-  <si>
-    <t>Great! You are one step away. Please select the model from the following: 1. SOLAR BLDC SUBMERSIBLE PU 2. SOLAR AC SUBMERSIBLE PUMP</t>
-  </si>
-  <si>
-    <t>Solar Monobloc Pump</t>
-  </si>
-  <si>
-    <t>SOLAR AC CENTRIFUGAL MONO</t>
-  </si>
-  <si>
-    <t>We have multiple kinds of Lightings. Please select your choice. 1. LED Lamps 2. CFL 3. FTL 4. GLS 5. Halogen 6. HID</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -376,6 +274,84 @@
   </si>
   <si>
     <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360/' target='_blank'&gt;Air 360&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/air-360-deco/' target='_blank'&gt;Air 360 Deco&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/briz-air/' target='_blank'&gt;Briz Air&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/ceiling-fans/ariya-briz/' target='_blank'&gt;/Ariya Briz&lt;/a&gt; 3. Brizair Deco 4. Cool Breeze 5. Cool Breeze Deco 6. High Speed Ceiling Fans 7. Hill Briz 8. HS Crypto 9. Neo Breeze 10. Neo Breeze Deco 11. Riviera 12. Sea Breeze 13. Sea Wind 14. Smart Breeze 15. Super Briz Deco</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/table-fans/hi-speed/' target='_blank'&gt;Hi Speed&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/table-fans/high-flo-eva/' target='_blank'&gt;High Flo Eva&lt;/a&gt; 3. SDX Black Gold 4. Windmill</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/pedastal-fans/hiflo-lg-16/' target='_blank'&gt;High Flo LG 16"&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/pedastal-fans/hi-flo-aveia/' target='_blank'&gt;High Flo Aveia&lt;/a&gt; 3. High Flo Ester 4. High Speed 5. High Flo Wave 6. High Flo LG 7. High Flo Neo 8. High Flo Wave 9. SDX Black Gold 10. SStorm2 11. Wind Flo (High Speed) 12. Windmill</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/wall-mounted-fans/sstorm2-2/' target='_blank'&gt;SStorm2&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/wall-mounted-fans/hiflo-lg-16-2/' target='_blank'&gt;High Flo LG 16&lt;/a&gt; 3. High Speed 4. High Flo LG 18 5. High Flo Wave 6. High Flo Cressida 7. High Flo Wave 8. SDX Black Gold 9. Wind Flo (High Speed)</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/domestic-exhaust-fans/brisk-air/' target='_blank'&gt;Brisk Air&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-fans/domestic-exhaust-fans/drift-air/' target='_blank'&gt;Drift Air&lt;/a&gt; 3. Flux Air 4. Transair 5. Transair Reversible</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://www.crompton.co.in/product-category/consumer-fans/kitchen-fans/' target='_blank'&gt;Air Buddy&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Solar pump</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-pumps/solar-pumps/agricultural-application/ac-motor-agricultural-solar-pump/' target='_blank'&gt;AC Motor Agricultural Solar Pump&lt;/a&gt; 2. AC Motor Solar Pump 3. BDLC Motor Solar Pump</t>
+  </si>
+  <si>
+    <t>We have multiple kinds of Lightings. Please select your choice. 1. 3 Star 2. Anti Bac 3. High Wattage 4. Lyor 5. Modern &amp; Deco 6. Twist lamp</t>
+  </si>
+  <si>
+    <t>3 Star</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-lighting/led-bulbs/3-star-range/12w-regular-lamp/' target='_blank'&gt;12W Regular Lamp&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-lighting/led-bulbs/3-star-range/14w-regular-lamp/' target='_blank'&gt;14W Regular Lamp&lt;/a&gt; 3. 18W Regular Lamp 4. 23W Regular Lamp 5. 3W Regular Lamp 6. 5W Regular Lamp 7. 7W Regular Lamp 8. 9W Regular Lamp</t>
+  </si>
+  <si>
+    <t>Anti Bac</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://www.crompton.co.in/product/consumer-lighting/led-bulbs/anti-bac-led-lamp/anti-bac-led-bulb/' target='_blank'&gt;Anti Bac LED Bulb&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>High Wattage</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://www.crompton.co.in/product/consumer-lighting/led-bulbs/higher-wattage-range/high-wattage-led-lamps/' target='_blank'&gt;High Wattage&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>LYOR</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://www.crompton.co.in/product/consumer-lighting/led-bulbs/5-star-range-lyor/lyor/' target='_blank'&gt;LYOR&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Modern &amp; Deco Range</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. There are many models. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/consumer-lighting/led-bulbs/modern-and-deco-range/modern-regular-lamps/' target='_blank'&gt;Moden Regular Lamps&lt;/a&gt; 2. &lt;a href = 'https://www.crompton.co.in/product/consumer-lighting/led-bulbs/modern-and-deco-range/clear-lense-candle-lamp/' target='_blank'&gt;Clear Lense Candle Lamp&lt;/a&gt; 3. Milky White Candle Lamp 4. Mushroom Candle Lamp</t>
+  </si>
+  <si>
+    <t>Twist Lamp</t>
+  </si>
+  <si>
+    <t>&lt;a href = 'https://www.crompton.co.in/product/consumer-lighting/led-bulbs/twist-lamp/twist-lamp/' target='_blank'&gt;Twist Lamp&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/home-appliances/air-coolers/personal/ginie/' target='_blank'&gt;Genie&lt;/a&gt; 2. MARVEL</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/home-appliances/air-coolers/tower/mystique/' target='_blank'&gt;Mystique&lt;/a&gt; 2. MYSTIQUE DLX 3. MYSTIQUE TURBO 22 4. MYSTIQUE TURBO 34</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/home-appliances/air-coolers/desert/aura-55/' target='_blank'&gt;Aura 55&lt;/a&gt; 2. Aura 75 3. Aura 90 4. Optimus 100 5. Optimus 65 6. Ozone 55 7. Ozone 88</t>
+  </si>
+  <si>
+    <t>Great! You are one step away. Please select the model from the following: 1. &lt;a href = 'https://www.crompton.co.in/product/home-appliances/air-coolers/desert/ozone-75/' target='_blank'&gt;Ozone 75&lt;/a&gt; 2. Ozone Chill 3. Ozone Classic Cooler 4. Tricool</t>
+  </si>
+  <si>
+    <t>We have multiple variety. Please select your choice. 1. Solar Pumps 2. Residential Pumps 3. Speciality Pumps 4. Agricultural Pumps</t>
   </si>
 </sst>
 </file>
@@ -727,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DCF6BF-0F4F-4881-9E36-3D3059FC833D}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,106 +717,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,71 +824,71 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,87 +896,87 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,7 +984,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,151 +992,151 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1168,7 +1144,7 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,207 +1152,175 @@
         <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/chatbot - CGL.xlsx
+++ b/chatbot - CGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201322\Documents\chatbot\chatbot-CGL-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF523AF-938E-4B1F-B19A-07E64AFC36F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E87A55-FB55-4781-BA6D-D6B2C013B235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{62C85670-35FA-4D97-B789-A1EEBD53B761}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Air Cooler</t>
   </si>
   <si>
-    <t>We have multiple variety. Please select your choice. 1. Personal Coolers 2. Tower Coolers 3. Desert Coolers</t>
-  </si>
-  <si>
     <t>Personal Cooler</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>We have multiple variety. Please select your choice. 1. Solar Pumps 2. Residential Pumps 3. Speciality Pumps 4. Agricultural Pumps</t>
+  </si>
+  <si>
+    <t>We have multiple variety. Please select your choice. 1. Personal Coolers 2. Tower Coolers 3. Desert Coolers 4. Window Cooler</t>
   </si>
 </sst>
 </file>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DCF6BF-0F4F-4881-9E36-3D3059FC833D}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,106 +717,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,71 +824,71 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,127 +896,127 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,55 +1024,55 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
         <v>90</v>
-      </c>
-      <c r="B40" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
         <v>92</v>
-      </c>
-      <c r="B41" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
         <v>94</v>
-      </c>
-      <c r="B42" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
         <v>96</v>
-      </c>
-      <c r="B43" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
         <v>98</v>
-      </c>
-      <c r="B44" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
         <v>100</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,247 +1080,247 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s">
         <v>87</v>
-      </c>
-      <c r="B64" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
         <v>38</v>
-      </c>
-      <c r="B65" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
         <v>45</v>
-      </c>
-      <c r="B71" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" t="s">
         <v>57</v>
-      </c>
-      <c r="B72" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
         <v>59</v>
-      </c>
-      <c r="B73" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
